--- a/Resources/CustomRegions/CustomRegionRat_v3.xlsx
+++ b/Resources/CustomRegions/CustomRegionRat_v3.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\HBP_Analytics\Nutil\Nutil_releases\Resources_for_Nutil\CustomRegionFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\kant\med-imb-u1\sharoncy\pc\Desktop\CustomRegions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="9405" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustomRegionRat" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -563,10 +563,10 @@
   <dimension ref="A1:Q400"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="8" customWidth="1"/>
@@ -806,9 +806,7 @@
       <c r="I6" s="6">
         <v>81</v>
       </c>
-      <c r="J6" s="6">
-        <v>74</v>
-      </c>
+      <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -839,9 +837,7 @@
       <c r="I7" s="6">
         <v>43</v>
       </c>
-      <c r="J7" s="6">
-        <v>75</v>
-      </c>
+      <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -870,9 +866,7 @@
       <c r="I8" s="6">
         <v>147</v>
       </c>
-      <c r="J8" s="6">
-        <v>56</v>
-      </c>
+      <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -1639,7 +1633,9 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="H41" s="6">
+        <v>74</v>
+      </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
@@ -1658,7 +1654,9 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="H42" s="6">
+        <v>75</v>
+      </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
@@ -1677,7 +1675,9 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="H43" s="6">
+        <v>56</v>
+      </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
